--- a/Outputs/5. Budget constrained/Grid Search/Output Files/2000000/Output_24_32.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/2000000/Output_24_32.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>2628785.537449588</v>
+        <v>2626533.457738381</v>
       </c>
     </row>
     <row r="7">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>416855.1052283189</v>
+        <v>416855.1052283184</v>
       </c>
     </row>
     <row r="9">
@@ -656,7 +656,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
         <v>365.2728917710076</v>
@@ -665,7 +665,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
         <v>6.876045741711437</v>
@@ -677,7 +677,7 @@
         <v>294.6077643873205</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -710,10 +710,10 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V2" t="n">
         <v>327.7522584701349</v>
@@ -722,10 +722,10 @@
         <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>239.792001247002</v>
+        <v>128.7363964403885</v>
       </c>
       <c r="Y2" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -738,7 +738,7 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C3" t="n">
-        <v>172.7084989883154</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D3" t="n">
         <v>147.4450655646388</v>
@@ -820,10 +820,10 @@
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -832,10 +832,10 @@
         <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -862,25 +862,25 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>114.3606976213221</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V4" t="n">
-        <v>220.7421168331537</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
         <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
         <v>0</v>
@@ -893,7 +893,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
         <v>365.2728917710076</v>
@@ -902,16 +902,16 @@
         <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G5" t="n">
-        <v>10.92172565345345</v>
+        <v>410.9217256534534</v>
       </c>
       <c r="H5" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
         <v>41.57692977292595</v>
@@ -950,19 +950,19 @@
         <v>203.9179701396201</v>
       </c>
       <c r="U5" t="n">
-        <v>10.80393931204066</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V5" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>349.240968717413</v>
+        <v>16.61609021059992</v>
       </c>
       <c r="X5" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="6">
@@ -1054,13 +1054,13 @@
         <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>167.2468210986278</v>
+        <v>148.4348925031071</v>
       </c>
       <c r="D7" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
         <v>0</v>
@@ -1105,19 +1105,19 @@
         <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U7" t="n">
         <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>97.01188539214105</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
         <v>0</v>
@@ -1130,7 +1130,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
         <v>365.2728917710076</v>
@@ -1139,16 +1139,16 @@
         <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>387.3568991626934</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G8" t="n">
-        <v>10.92172565345345</v>
+        <v>410.9217256534534</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I8" t="n">
         <v>41.57692977292595</v>
@@ -1181,10 +1181,10 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U8" t="n">
         <v>250.995171958902</v>
@@ -1196,10 +1196,10 @@
         <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>369.731100678469</v>
+        <v>129.5398680316083</v>
       </c>
       <c r="Y8" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -1291,7 +1291,7 @@
         <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>133.3353753834493</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
         <v>0</v>
@@ -1300,7 +1300,7 @@
         <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
         <v>0</v>
@@ -1309,7 +1309,7 @@
         <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -1339,13 +1339,13 @@
         <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>88.89700561060583</v>
       </c>
       <c r="T10" t="n">
         <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V10" t="n">
         <v>252.137643323828</v>
@@ -1528,25 +1528,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>129.1078928223853</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>27.02919805176109</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I13" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1604,7 +1604,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>382.7338416634807</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C14" t="n">
         <v>365.2728917710076</v>
@@ -1613,13 +1613,13 @@
         <v>354.683041620683</v>
       </c>
       <c r="E14" t="n">
-        <v>381.9303700722618</v>
+        <v>381.9303700722614</v>
       </c>
       <c r="F14" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G14" t="n">
-        <v>409.8033385187867</v>
+        <v>409.8033385187866</v>
       </c>
       <c r="H14" t="n">
         <v>283.1540821444137</v>
@@ -1655,19 +1655,19 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>83.70251495695526</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T14" t="n">
         <v>199.0222304576161</v>
       </c>
       <c r="U14" t="n">
-        <v>250.9057009881287</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V14" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W14" t="n">
-        <v>349.2409687174154</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X14" t="n">
         <v>369.731100678469</v>
@@ -1762,25 +1762,25 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>179.8319801819373</v>
+        <v>143.4157347120542</v>
       </c>
       <c r="C16" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
@@ -1810,13 +1810,13 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>66.37524671012164</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T16" t="n">
-        <v>187.460824212072</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U16" t="n">
         <v>286.1844743892441</v>
@@ -1841,13 +1841,13 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>382.7338416634807</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C17" t="n">
-        <v>365.2728917710077</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D17" t="n">
-        <v>354.6830416206831</v>
+        <v>354.6830416206834</v>
       </c>
       <c r="E17" t="n">
         <v>381.9303700722618</v>
@@ -1904,7 +1904,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W17" t="n">
-        <v>349.2409687174131</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X17" t="n">
         <v>369.731100678469</v>
@@ -1999,10 +1999,10 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
-        <v>167.2468210986278</v>
+        <v>120.7871326503973</v>
       </c>
       <c r="D19" t="n">
         <v>148.6154730182124</v>
@@ -2011,13 +2011,13 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
         <v>0</v>
@@ -2047,16 +2047,16 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T19" t="n">
         <v>217.4054503272883</v>
       </c>
       <c r="U19" t="n">
-        <v>215.7183996732936</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V19" t="n">
         <v>252.137643323828</v>
@@ -2242,7 +2242,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
         <v>146.4339626465692</v>
@@ -2254,10 +2254,10 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2302,10 +2302,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
-        <v>196.7522338257449</v>
+        <v>45.16086499484926</v>
       </c>
       <c r="Y22" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -2330,10 +2330,10 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G23" t="n">
-        <v>409.8033385187866</v>
+        <v>409.803338518787</v>
       </c>
       <c r="H23" t="n">
-        <v>283.1540821444141</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I23" t="n">
         <v>0</v>
@@ -2375,7 +2375,7 @@
         <v>250.9057009881286</v>
       </c>
       <c r="V23" t="n">
-        <v>327.752258470135</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W23" t="n">
         <v>349.240968717413</v>
@@ -2476,13 +2476,13 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>130.1208074460236</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
         <v>145.4210480229312</v>
@@ -2524,7 +2524,7 @@
         <v>66.37524671012166</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T25" t="n">
         <v>217.4054503272883</v>
@@ -2536,7 +2536,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W25" t="n">
-        <v>283.9893080390622</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X25" t="n">
         <v>225.7096553890372</v>
@@ -2558,7 +2558,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D26" t="n">
-        <v>354.683041620683</v>
+        <v>354.6830416206834</v>
       </c>
       <c r="E26" t="n">
         <v>381.9303700722618</v>
@@ -2710,25 +2710,25 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>179.8319801819373</v>
+        <v>134.3852063573447</v>
       </c>
       <c r="C28" t="n">
-        <v>144.6100405317613</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
         <v>0</v>
@@ -2761,7 +2761,7 @@
         <v>66.37524671012166</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T28" t="n">
         <v>217.4054503272883</v>
@@ -2795,7 +2795,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D29" t="n">
-        <v>354.683041620683</v>
+        <v>354.6830416206824</v>
       </c>
       <c r="E29" t="n">
         <v>381.9303700722618</v>
@@ -2950,13 +2950,13 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
-        <v>137.3021949834108</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
-        <v>148.6154730182124</v>
+        <v>95.21019414968984</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
         <v>145.4210480229312</v>
@@ -2965,7 +2965,7 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I31" t="n">
         <v>0</v>
@@ -2998,7 +2998,7 @@
         <v>66.37524671012166</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T31" t="n">
         <v>217.4054503272883</v>
@@ -3013,10 +3013,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X31" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y31" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32">
@@ -3029,7 +3029,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C32" t="n">
-        <v>365.2728917710079</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D32" t="n">
         <v>354.683041620683</v>
@@ -3187,13 +3187,13 @@
         <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D34" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
         <v>145.4210480229312</v>
@@ -3202,10 +3202,10 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H34" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>75.96788793061847</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3232,10 +3232,10 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S34" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T34" t="n">
         <v>217.4054503272883</v>
@@ -3244,7 +3244,7 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V34" t="n">
-        <v>252.137643323828</v>
+        <v>241.8115698409626</v>
       </c>
       <c r="W34" t="n">
         <v>286.522998336591</v>
@@ -3269,7 +3269,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D35" t="n">
-        <v>354.6830416206834</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E35" t="n">
         <v>381.9303700722618</v>
@@ -3430,7 +3430,7 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
         <v>145.4210480229312</v>
@@ -3442,7 +3442,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I37" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3472,7 +3472,7 @@
         <v>66.37524671012166</v>
       </c>
       <c r="S37" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T37" t="n">
         <v>217.4054503272883</v>
@@ -3484,13 +3484,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W37" t="n">
-        <v>35.0178230565848</v>
+        <v>7.408064079031337</v>
       </c>
       <c r="X37" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y37" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38">
@@ -3658,10 +3658,10 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>41.01175877060142</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C40" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D40" t="n">
         <v>148.6154730182124</v>
@@ -3670,10 +3670,10 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
-        <v>145.4210480229312</v>
+        <v>120.7871326503972</v>
       </c>
       <c r="G40" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
         <v>0</v>
@@ -3727,7 +3727,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y40" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="41">
@@ -3907,7 +3907,7 @@
         <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>78.89395497654138</v>
       </c>
       <c r="G43" t="n">
         <v>165.5241382922688</v>
@@ -3943,7 +3943,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S43" t="n">
         <v>181.0262860016446</v>
@@ -3961,10 +3961,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X43" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y43" t="n">
-        <v>138.1441996497207</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="44">
@@ -4141,16 +4141,16 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
-        <v>146.4339626465692</v>
+        <v>18.7084378797731</v>
       </c>
       <c r="F46" t="n">
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
         <v>81.26583631856552</v>
@@ -4189,13 +4189,13 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U46" t="n">
-        <v>139.1630968205466</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V46" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W46" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X46" t="n">
         <v>225.7096553890372</v>
@@ -4304,40 +4304,40 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1899.13013587303</v>
+        <v>1555.338782035317</v>
       </c>
       <c r="C2" t="n">
-        <v>1530.167618932618</v>
+        <v>1186.376265094905</v>
       </c>
       <c r="D2" t="n">
-        <v>1171.901920325867</v>
+        <v>828.1105664881544</v>
       </c>
       <c r="E2" t="n">
-        <v>786.1136677276232</v>
+        <v>828.1105664881544</v>
       </c>
       <c r="F2" t="n">
-        <v>779.1681669784198</v>
+        <v>821.1650657389509</v>
       </c>
       <c r="G2" t="n">
-        <v>364.0957168234162</v>
+        <v>406.0926155839475</v>
       </c>
       <c r="H2" t="n">
-        <v>66.51211643218342</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="I2" t="n">
         <v>66.51211643218342</v>
       </c>
       <c r="J2" t="n">
-        <v>255.3912473912087</v>
+        <v>255.3912473912089</v>
       </c>
       <c r="K2" t="n">
-        <v>589.2106210810553</v>
+        <v>589.2106210810554</v>
       </c>
       <c r="L2" t="n">
-        <v>1040.244834329465</v>
+        <v>1040.244834329464</v>
       </c>
       <c r="M2" t="n">
-        <v>1573.776739001389</v>
+        <v>1573.776739001388</v>
       </c>
       <c r="N2" t="n">
         <v>2120.555556060171</v>
@@ -4358,22 +4358,22 @@
         <v>3215.315153136266</v>
       </c>
       <c r="T2" t="n">
-        <v>3215.315153136266</v>
+        <v>3009.337405520488</v>
       </c>
       <c r="U2" t="n">
-        <v>3215.315153136266</v>
+        <v>2755.806928794324</v>
       </c>
       <c r="V2" t="n">
-        <v>2884.252265792695</v>
+        <v>2424.744041450753</v>
       </c>
       <c r="W2" t="n">
-        <v>2531.483610522581</v>
+        <v>2071.975386180639</v>
       </c>
       <c r="X2" t="n">
-        <v>2289.269467848841</v>
+        <v>1941.938622099438</v>
       </c>
       <c r="Y2" t="n">
-        <v>1899.13013587303</v>
+        <v>1941.938622099438</v>
       </c>
     </row>
     <row r="3">
@@ -4383,19 +4383,19 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>941.5438544811084</v>
+        <v>941.5438544811082</v>
       </c>
       <c r="C3" t="n">
-        <v>767.0908251999817</v>
+        <v>767.0908251999812</v>
       </c>
       <c r="D3" t="n">
-        <v>618.1564155387305</v>
+        <v>618.15641553873</v>
       </c>
       <c r="E3" t="n">
-        <v>458.9189605332749</v>
+        <v>458.9189605332745</v>
       </c>
       <c r="F3" t="n">
-        <v>312.3844025601599</v>
+        <v>312.3844025601595</v>
       </c>
       <c r="G3" t="n">
         <v>176.0213023927779</v>
@@ -4404,7 +4404,7 @@
         <v>85.51940803064545</v>
       </c>
       <c r="I3" t="n">
-        <v>66.51211643218342</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J3" t="n">
         <v>160.1893859228007</v>
@@ -4413,7 +4413,7 @@
         <v>398.4535849031479</v>
       </c>
       <c r="L3" t="n">
-        <v>765.1517452158132</v>
+        <v>765.151745215813</v>
       </c>
       <c r="M3" t="n">
         <v>1212.428070438129</v>
@@ -4462,25 +4462,25 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>608.0847133907091</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="C4" t="n">
-        <v>608.0847133907091</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="D4" t="n">
-        <v>457.9680739783734</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="E4" t="n">
-        <v>310.0549803959803</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="F4" t="n">
-        <v>310.0549803959803</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="G4" t="n">
-        <v>310.0549803959803</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="H4" t="n">
-        <v>163.8377936138381</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I4" t="n">
         <v>66.51211643218342</v>
@@ -4510,28 +4510,28 @@
         <v>920.8870058181849</v>
       </c>
       <c r="R4" t="n">
-        <v>831.0565485757129</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="S4" t="n">
-        <v>831.0565485757129</v>
+        <v>805.3711496350312</v>
       </c>
       <c r="T4" t="n">
-        <v>831.0565485757129</v>
+        <v>583.6045342045572</v>
       </c>
       <c r="U4" t="n">
-        <v>831.0565485757129</v>
+        <v>294.5016673302007</v>
       </c>
       <c r="V4" t="n">
-        <v>608.0847133907091</v>
+        <v>294.5016673302007</v>
       </c>
       <c r="W4" t="n">
-        <v>608.0847133907091</v>
+        <v>294.5016673302007</v>
       </c>
       <c r="X4" t="n">
-        <v>608.0847133907091</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="Y4" t="n">
-        <v>608.0847133907091</v>
+        <v>66.51211643218342</v>
       </c>
     </row>
     <row r="5">
@@ -4541,22 +4541,22 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1941.127034633561</v>
+        <v>1257.755181644084</v>
       </c>
       <c r="C5" t="n">
-        <v>1572.164517693149</v>
+        <v>888.7926647036722</v>
       </c>
       <c r="D5" t="n">
-        <v>1213.898819086399</v>
+        <v>530.5269660969217</v>
       </c>
       <c r="E5" t="n">
-        <v>828.1105664881545</v>
+        <v>530.5269660969217</v>
       </c>
       <c r="F5" t="n">
-        <v>417.1246616985469</v>
+        <v>523.5814653477182</v>
       </c>
       <c r="G5" t="n">
-        <v>406.0926155839475</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="H5" t="n">
         <v>108.5090151927147</v>
@@ -4565,13 +4565,13 @@
         <v>66.51211643218342</v>
       </c>
       <c r="J5" t="n">
-        <v>255.3912473912089</v>
+        <v>255.3912473912087</v>
       </c>
       <c r="K5" t="n">
         <v>589.2106210810553</v>
       </c>
       <c r="L5" t="n">
-        <v>1040.244834329465</v>
+        <v>1040.244834329464</v>
       </c>
       <c r="M5" t="n">
         <v>1573.776739001389</v>
@@ -4598,19 +4598,19 @@
         <v>3009.337405520488</v>
       </c>
       <c r="U5" t="n">
-        <v>2998.424335508326</v>
+        <v>2755.806928794324</v>
       </c>
       <c r="V5" t="n">
-        <v>2667.361448164755</v>
+        <v>2424.744041450754</v>
       </c>
       <c r="W5" t="n">
-        <v>2314.592792894641</v>
+        <v>2407.960111945097</v>
       </c>
       <c r="X5" t="n">
-        <v>1941.127034633561</v>
+        <v>2034.494353684017</v>
       </c>
       <c r="Y5" t="n">
-        <v>1941.127034633561</v>
+        <v>1644.355021708206</v>
       </c>
     </row>
     <row r="6">
@@ -4620,25 +4620,25 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>941.5438544811082</v>
+        <v>941.5438544811086</v>
       </c>
       <c r="C6" t="n">
-        <v>767.0908251999812</v>
+        <v>767.0908251999816</v>
       </c>
       <c r="D6" t="n">
-        <v>618.15641553873</v>
+        <v>618.1564155387305</v>
       </c>
       <c r="E6" t="n">
-        <v>458.9189605332745</v>
+        <v>458.9189605332749</v>
       </c>
       <c r="F6" t="n">
-        <v>312.3844025601595</v>
+        <v>312.38440256016</v>
       </c>
       <c r="G6" t="n">
-        <v>176.0213023927779</v>
+        <v>176.0213023927786</v>
       </c>
       <c r="H6" t="n">
-        <v>85.51940803064537</v>
+        <v>85.51940803064583</v>
       </c>
       <c r="I6" t="n">
         <v>66.51211643218342</v>
@@ -4647,37 +4647,37 @@
         <v>160.189385922801</v>
       </c>
       <c r="K6" t="n">
-        <v>398.4535849031479</v>
+        <v>398.4535849031481</v>
       </c>
       <c r="L6" t="n">
-        <v>765.151745215813</v>
+        <v>765.1517452158135</v>
       </c>
       <c r="M6" t="n">
         <v>1212.428070438129</v>
       </c>
       <c r="N6" t="n">
-        <v>1685.951113992583</v>
+        <v>1685.951113992584</v>
       </c>
       <c r="O6" t="n">
-        <v>2096.912393410638</v>
+        <v>2096.912393410639</v>
       </c>
       <c r="P6" t="n">
-        <v>2407.411984886741</v>
+        <v>2407.411984886742</v>
       </c>
       <c r="Q6" t="n">
         <v>2565.053542533341</v>
       </c>
       <c r="R6" t="n">
-        <v>2564.909189125856</v>
+        <v>2564.909189125857</v>
       </c>
       <c r="S6" t="n">
-        <v>2435.471302619336</v>
+        <v>2435.471302619337</v>
       </c>
       <c r="T6" t="n">
         <v>2242.828302297192</v>
       </c>
       <c r="U6" t="n">
-        <v>2014.760455431607</v>
+        <v>2014.760455431608</v>
       </c>
       <c r="V6" t="n">
         <v>1779.608347199865</v>
@@ -4686,10 +4686,10 @@
         <v>1525.370990471663</v>
       </c>
       <c r="X6" t="n">
-        <v>1317.51949026613</v>
+        <v>1317.519490266131</v>
       </c>
       <c r="Y6" t="n">
-        <v>1109.759191501176</v>
+        <v>1109.759191501177</v>
       </c>
     </row>
     <row r="7">
@@ -4699,13 +4699,13 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>533.4780323548191</v>
+        <v>216.4463512838067</v>
       </c>
       <c r="C7" t="n">
-        <v>364.5418494269122</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="D7" t="n">
-        <v>214.4252100145765</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="E7" t="n">
         <v>66.51211643218342</v>
@@ -4753,22 +4753,22 @@
         <v>920.8870058181849</v>
       </c>
       <c r="T7" t="n">
-        <v>920.8870058181849</v>
+        <v>699.1203903877109</v>
       </c>
       <c r="U7" t="n">
-        <v>920.8870058181849</v>
+        <v>699.1203903877109</v>
       </c>
       <c r="V7" t="n">
-        <v>920.8870058181849</v>
+        <v>444.4359021818241</v>
       </c>
       <c r="W7" t="n">
-        <v>631.4698357812242</v>
+        <v>444.4359021818241</v>
       </c>
       <c r="X7" t="n">
-        <v>533.4780323548191</v>
+        <v>216.4463512838067</v>
       </c>
       <c r="Y7" t="n">
-        <v>533.4780323548191</v>
+        <v>216.4463512838067</v>
       </c>
     </row>
     <row r="8">
@@ -4778,76 +4778,76 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1238.038871968308</v>
+        <v>1941.127034633561</v>
       </c>
       <c r="C8" t="n">
-        <v>869.0763550278964</v>
+        <v>1572.164517693149</v>
       </c>
       <c r="D8" t="n">
-        <v>510.8106564211459</v>
+        <v>1213.898819086399</v>
       </c>
       <c r="E8" t="n">
-        <v>510.8106564211459</v>
+        <v>828.1105664881544</v>
       </c>
       <c r="F8" t="n">
-        <v>119.5410613073141</v>
+        <v>821.1650657389509</v>
       </c>
       <c r="G8" t="n">
-        <v>108.5090151927147</v>
+        <v>406.0926155839475</v>
       </c>
       <c r="H8" t="n">
         <v>108.5090151927147</v>
       </c>
       <c r="I8" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J8" t="n">
-        <v>255.3912473912088</v>
+        <v>255.3912473912096</v>
       </c>
       <c r="K8" t="n">
-        <v>589.2106210810553</v>
+        <v>589.2106210810564</v>
       </c>
       <c r="L8" t="n">
-        <v>1040.244834329464</v>
+        <v>1040.244834329465</v>
       </c>
       <c r="M8" t="n">
-        <v>1573.776739001388</v>
+        <v>1573.776739001389</v>
       </c>
       <c r="N8" t="n">
-        <v>2120.555556060171</v>
+        <v>2120.555556060172</v>
       </c>
       <c r="O8" t="n">
-        <v>2623.528026939508</v>
+        <v>2623.528026939509</v>
       </c>
       <c r="P8" t="n">
-        <v>3018.302393296686</v>
+        <v>3018.302393296687</v>
       </c>
       <c r="Q8" t="n">
-        <v>3266.588755052368</v>
+        <v>3266.588755052369</v>
       </c>
       <c r="R8" t="n">
-        <v>3325.60582160917</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="S8" t="n">
-        <v>3325.60582160917</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="T8" t="n">
-        <v>3325.60582160917</v>
+        <v>3009.337405520489</v>
       </c>
       <c r="U8" t="n">
-        <v>3072.075344883006</v>
+        <v>2755.806928794325</v>
       </c>
       <c r="V8" t="n">
-        <v>2741.012457539436</v>
+        <v>2424.744041450754</v>
       </c>
       <c r="W8" t="n">
-        <v>2388.243802269321</v>
+        <v>2071.97538618064</v>
       </c>
       <c r="X8" t="n">
-        <v>2014.778044008242</v>
+        <v>1941.127034633561</v>
       </c>
       <c r="Y8" t="n">
-        <v>1624.63871203243</v>
+        <v>1941.127034633561</v>
       </c>
     </row>
     <row r="9">
@@ -4857,76 +4857,76 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>1702.096133556937</v>
+        <v>941.5438544811082</v>
       </c>
       <c r="C9" t="n">
-        <v>1527.64310427581</v>
+        <v>767.0908251999812</v>
       </c>
       <c r="D9" t="n">
-        <v>1378.708694614559</v>
+        <v>618.15641553873</v>
       </c>
       <c r="E9" t="n">
-        <v>1219.471239609103</v>
+        <v>458.9189605332745</v>
       </c>
       <c r="F9" t="n">
-        <v>1072.936681635988</v>
+        <v>312.3844025601595</v>
       </c>
       <c r="G9" t="n">
-        <v>936.5735814686066</v>
+        <v>176.0213023927779</v>
       </c>
       <c r="H9" t="n">
-        <v>846.0716871064741</v>
+        <v>85.51940803064537</v>
       </c>
       <c r="I9" t="n">
-        <v>827.064395508012</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J9" t="n">
-        <v>920.7416649986294</v>
+        <v>160.189385922801</v>
       </c>
       <c r="K9" t="n">
-        <v>1159.005863978977</v>
+        <v>398.4535849031479</v>
       </c>
       <c r="L9" t="n">
-        <v>1525.704024291642</v>
+        <v>765.151745215813</v>
       </c>
       <c r="M9" t="n">
-        <v>1972.980349513958</v>
+        <v>1212.428070438129</v>
       </c>
       <c r="N9" t="n">
-        <v>2446.503393068412</v>
+        <v>1685.951113992583</v>
       </c>
       <c r="O9" t="n">
-        <v>2857.464672486467</v>
+        <v>2096.912393410638</v>
       </c>
       <c r="P9" t="n">
-        <v>3167.96426396257</v>
+        <v>2407.411984886741</v>
       </c>
       <c r="Q9" t="n">
-        <v>3325.60582160917</v>
+        <v>2565.053542533341</v>
       </c>
       <c r="R9" t="n">
-        <v>3325.461468201685</v>
+        <v>2564.909189125856</v>
       </c>
       <c r="S9" t="n">
-        <v>3196.023581695165</v>
+        <v>2435.471302619336</v>
       </c>
       <c r="T9" t="n">
-        <v>3003.380581373021</v>
+        <v>2242.828302297192</v>
       </c>
       <c r="U9" t="n">
-        <v>2775.312734507436</v>
+        <v>2014.760455431607</v>
       </c>
       <c r="V9" t="n">
-        <v>2540.160626275694</v>
+        <v>1779.608347199865</v>
       </c>
       <c r="W9" t="n">
-        <v>2285.923269547492</v>
+        <v>1525.370990471663</v>
       </c>
       <c r="X9" t="n">
-        <v>2078.071769341959</v>
+        <v>1317.51949026613</v>
       </c>
       <c r="Y9" t="n">
-        <v>1870.311470577005</v>
+        <v>1109.759191501176</v>
       </c>
     </row>
     <row r="10">
@@ -4936,76 +4936,76 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>445.4099384687679</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="C10" t="n">
-        <v>310.7277411117484</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="D10" t="n">
-        <v>310.7277411117484</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="E10" t="n">
-        <v>310.7277411117484</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="F10" t="n">
-        <v>163.837793613838</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="G10" t="n">
-        <v>163.837793613838</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="H10" t="n">
-        <v>163.837793613838</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="I10" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J10" t="n">
-        <v>78.33486996962286</v>
+        <v>78.33486996962289</v>
       </c>
       <c r="K10" t="n">
-        <v>176.6457242372932</v>
+        <v>176.6457242372933</v>
       </c>
       <c r="L10" t="n">
         <v>332.3555681596505</v>
       </c>
       <c r="M10" t="n">
-        <v>499.7880494588483</v>
+        <v>499.7880494588484</v>
       </c>
       <c r="N10" t="n">
-        <v>671.0968864886958</v>
+        <v>671.0968864886959</v>
       </c>
       <c r="O10" t="n">
-        <v>809.0152357068855</v>
+        <v>809.0152357068856</v>
       </c>
       <c r="P10" t="n">
-        <v>907.9662384596442</v>
+        <v>907.9662384596443</v>
       </c>
       <c r="Q10" t="n">
-        <v>920.8870058181849</v>
+        <v>920.887005818185</v>
       </c>
       <c r="R10" t="n">
-        <v>920.8870058181849</v>
+        <v>920.887005818185</v>
       </c>
       <c r="S10" t="n">
-        <v>920.8870058181849</v>
+        <v>831.0920506559569</v>
       </c>
       <c r="T10" t="n">
-        <v>920.8870058181849</v>
+        <v>831.0920506559569</v>
       </c>
       <c r="U10" t="n">
-        <v>920.8870058181849</v>
+        <v>541.9891837816004</v>
       </c>
       <c r="V10" t="n">
-        <v>666.202517612298</v>
+        <v>287.3046955757135</v>
       </c>
       <c r="W10" t="n">
-        <v>666.202517612298</v>
+        <v>287.3046955757135</v>
       </c>
       <c r="X10" t="n">
-        <v>666.202517612298</v>
+        <v>287.3046955757135</v>
       </c>
       <c r="Y10" t="n">
-        <v>445.4099384687679</v>
+        <v>66.51211643218343</v>
       </c>
     </row>
     <row r="11">
@@ -5036,10 +5036,10 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I11" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J11" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K11" t="n">
         <v>852.8523611075807</v>
@@ -5118,28 +5118,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J12" t="n">
-        <v>93.81666304797187</v>
+        <v>114.2598873597757</v>
       </c>
       <c r="K12" t="n">
-        <v>119.290296770379</v>
+        <v>448.1846595309963</v>
       </c>
       <c r="L12" t="n">
-        <v>119.290296770379</v>
+        <v>943.510265746755</v>
       </c>
       <c r="M12" t="n">
-        <v>716.6687843969308</v>
+        <v>1540.888753373307</v>
       </c>
       <c r="N12" t="n">
-        <v>1344.266747951538</v>
+        <v>1540.888753373307</v>
       </c>
       <c r="O12" t="n">
-        <v>1896.176478190825</v>
+        <v>2092.798483612594</v>
       </c>
       <c r="P12" t="n">
-        <v>2319.799627685893</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="Q12" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R12" t="n">
         <v>2553.061288060775</v>
@@ -5176,22 +5176,22 @@
         <v>513.8536007400712</v>
       </c>
       <c r="C13" t="n">
-        <v>344.9174178121643</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="D13" t="n">
-        <v>344.9174178121643</v>
+        <v>383.4415877881669</v>
       </c>
       <c r="E13" t="n">
-        <v>344.9174178121643</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="F13" t="n">
-        <v>344.9174178121643</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="G13" t="n">
-        <v>317.6151975578602</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H13" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I13" t="n">
         <v>93.81666304797187</v>
@@ -5255,31 +5255,31 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C14" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D14" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E14" t="n">
         <v>1204.759558406469</v>
       </c>
       <c r="F14" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G14" t="n">
         <v>379.8308874362686</v>
       </c>
       <c r="H14" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I14" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J14" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K14" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075798</v>
       </c>
       <c r="L14" t="n">
         <v>1478.611553332387</v>
@@ -5288,37 +5288,37 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N14" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O14" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P14" t="n">
-        <v>4194.413870694709</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q14" t="n">
-        <v>4562.265728852257</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R14" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S14" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T14" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U14" t="n">
-        <v>4151.812499466576</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V14" t="n">
-        <v>3820.749612123005</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W14" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X14" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y14" t="n">
         <v>2704.375866615997</v>
@@ -5340,7 +5340,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E15" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F15" t="n">
         <v>314.2396613568978</v>
@@ -5349,31 +5349,31 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H15" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I15" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J15" t="n">
-        <v>93.81666304797189</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K15" t="n">
-        <v>427.7414352191926</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L15" t="n">
-        <v>923.0670414349515</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M15" t="n">
-        <v>1520.445529061504</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="N15" t="n">
-        <v>2148.043492616111</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O15" t="n">
-        <v>2148.043492616111</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P15" t="n">
-        <v>2516.421633107662</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q15" t="n">
         <v>2516.421633107662</v>
@@ -5410,28 +5410,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>726.955532171245</v>
+        <v>550.637687073287</v>
       </c>
       <c r="C16" t="n">
-        <v>558.0193492433381</v>
+        <v>550.637687073287</v>
       </c>
       <c r="D16" t="n">
-        <v>407.9027098310023</v>
+        <v>550.637687073287</v>
       </c>
       <c r="E16" t="n">
-        <v>407.9027098310023</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="F16" t="n">
-        <v>261.0127623330919</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="G16" t="n">
-        <v>93.81666304797189</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H16" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I16" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J16" t="n">
         <v>174.0526814782958</v>
@@ -5443,7 +5443,7 @@
         <v>826.1405381797747</v>
       </c>
       <c r="M16" t="n">
-        <v>1248.15024091081</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N16" t="n">
         <v>1665.560112570818</v>
@@ -5452,34 +5452,34 @@
         <v>2035.089393279803</v>
       </c>
       <c r="P16" t="n">
-        <v>2327.764848853362</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q16" t="n">
         <v>2446.963083580261</v>
       </c>
       <c r="R16" t="n">
-        <v>2379.917379832664</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S16" t="n">
-        <v>2379.917379832664</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T16" t="n">
-        <v>2190.563011941682</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U16" t="n">
-        <v>1901.48778528588</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V16" t="n">
-        <v>1646.803297079993</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W16" t="n">
-        <v>1357.386127043032</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X16" t="n">
-        <v>1129.396576145015</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y16" t="n">
-        <v>908.6039970014847</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
     <row r="17">
@@ -5510,10 +5510,10 @@
         <v>93.81666304797189</v>
       </c>
       <c r="I17" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192503</v>
       </c>
       <c r="J17" t="n">
-        <v>378.1925803111718</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K17" t="n">
         <v>852.8523611075811</v>
@@ -5589,28 +5589,28 @@
         <v>93.81666304797189</v>
       </c>
       <c r="I18" t="n">
-        <v>95.58405025273906</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J18" t="n">
-        <v>95.58405025273906</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="K18" t="n">
-        <v>429.5088224239597</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="L18" t="n">
-        <v>924.8344286397185</v>
+        <v>923.0670414349513</v>
       </c>
       <c r="M18" t="n">
-        <v>1522.21291626627</v>
+        <v>1520.445529061503</v>
       </c>
       <c r="N18" t="n">
-        <v>2149.810879820877</v>
+        <v>1520.445529061503</v>
       </c>
       <c r="O18" t="n">
-        <v>2553.061288060775</v>
+        <v>2072.35525930079</v>
       </c>
       <c r="P18" t="n">
-        <v>2553.061288060775</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q18" t="n">
         <v>2553.061288060775</v>
@@ -5647,22 +5647,22 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>1016.58045691144</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="C19" t="n">
-        <v>847.644273983533</v>
+        <v>391.8463960427007</v>
       </c>
       <c r="D19" t="n">
-        <v>697.5276345711973</v>
+        <v>241.729756630365</v>
       </c>
       <c r="E19" t="n">
-        <v>549.6145409888042</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="F19" t="n">
-        <v>402.7245934908938</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="G19" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="H19" t="n">
         <v>93.81666304797189</v>
@@ -5695,28 +5695,28 @@
         <v>2446.963083580261</v>
       </c>
       <c r="R19" t="n">
-        <v>2446.963083580261</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S19" t="n">
-        <v>2446.963083580261</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T19" t="n">
-        <v>2227.361618603202</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U19" t="n">
-        <v>2009.464245195835</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V19" t="n">
-        <v>1754.779756989948</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W19" t="n">
-        <v>1465.362586952987</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X19" t="n">
-        <v>1237.37303605497</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y19" t="n">
-        <v>1016.58045691144</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
     <row r="20">
@@ -5738,49 +5738,49 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F20" t="n">
-        <v>793.7736536168612</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G20" t="n">
-        <v>379.8308874362687</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H20" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I20" t="n">
-        <v>95.34095638192598</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J20" t="n">
-        <v>378.1925803111701</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K20" t="n">
-        <v>852.8523611075794</v>
+        <v>852.8523611075816</v>
       </c>
       <c r="L20" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332389</v>
       </c>
       <c r="M20" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N20" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O20" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P20" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694709</v>
       </c>
       <c r="Q20" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852257</v>
       </c>
       <c r="R20" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S20" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T20" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U20" t="n">
         <v>4151.812499466573</v>
@@ -5814,7 +5814,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E21" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F21" t="n">
         <v>314.2396613568978</v>
@@ -5823,34 +5823,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H21" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I21" t="n">
-        <v>95.58405025273905</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J21" t="n">
-        <v>245.2306927803938</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="K21" t="n">
-        <v>245.2306927803938</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="L21" t="n">
-        <v>740.5562989961526</v>
+        <v>923.0670414349513</v>
       </c>
       <c r="M21" t="n">
-        <v>1337.934786622704</v>
+        <v>1520.445529061503</v>
       </c>
       <c r="N21" t="n">
-        <v>1731.250242493492</v>
+        <v>1520.445529061503</v>
       </c>
       <c r="O21" t="n">
-        <v>2283.159972732779</v>
+        <v>1896.176478190824</v>
       </c>
       <c r="P21" t="n">
-        <v>2283.159972732779</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q21" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R21" t="n">
         <v>2553.061288060775</v>
@@ -5884,28 +5884,28 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>724.7519863413023</v>
+        <v>1098.667160263526</v>
       </c>
       <c r="C22" t="n">
-        <v>555.8158034133954</v>
+        <v>929.7309773356194</v>
       </c>
       <c r="D22" t="n">
-        <v>555.8158034133954</v>
+        <v>779.6143379232836</v>
       </c>
       <c r="E22" t="n">
-        <v>407.9027098310023</v>
+        <v>631.7012443408905</v>
       </c>
       <c r="F22" t="n">
-        <v>261.0127623330919</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="G22" t="n">
-        <v>93.81666304797187</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="H22" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I22" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J22" t="n">
         <v>174.0526814782958</v>
@@ -5923,37 +5923,37 @@
         <v>1665.560112570818</v>
       </c>
       <c r="O22" t="n">
-        <v>2035.089393279791</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P22" t="n">
-        <v>2327.76484885335</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q22" t="n">
-        <v>2446.96308358025</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R22" t="n">
-        <v>2379.917379832652</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S22" t="n">
-        <v>2197.062545487556</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T22" t="n">
-        <v>1977.461080510497</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U22" t="n">
-        <v>1688.385853854695</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V22" t="n">
-        <v>1433.701365648808</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W22" t="n">
-        <v>1144.284195611848</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X22" t="n">
-        <v>945.5445654848324</v>
+        <v>1098.667160263526</v>
       </c>
       <c r="Y22" t="n">
-        <v>724.7519863413023</v>
+        <v>1098.667160263526</v>
       </c>
     </row>
     <row r="23">
@@ -5978,19 +5978,19 @@
         <v>793.7736536168616</v>
       </c>
       <c r="G23" t="n">
-        <v>379.830887436269</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H23" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I23" t="n">
-        <v>95.34095638192598</v>
+        <v>95.34095638192605</v>
       </c>
       <c r="J23" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K23" t="n">
-        <v>852.8523611075809</v>
+        <v>852.852361107581</v>
       </c>
       <c r="L23" t="n">
         <v>1478.611553332387</v>
@@ -6051,7 +6051,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E24" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F24" t="n">
         <v>314.2396613568978</v>
@@ -6060,31 +6060,31 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H24" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I24" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273906</v>
       </c>
       <c r="J24" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273906</v>
       </c>
       <c r="K24" t="n">
-        <v>427.7414352191925</v>
+        <v>244.2098454714573</v>
       </c>
       <c r="L24" t="n">
-        <v>427.7414352191925</v>
+        <v>739.5354516872161</v>
       </c>
       <c r="M24" t="n">
-        <v>680.0291294438171</v>
+        <v>1336.913939313768</v>
       </c>
       <c r="N24" t="n">
-        <v>1307.627092998424</v>
+        <v>1964.511902868375</v>
       </c>
       <c r="O24" t="n">
-        <v>1859.536823237711</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="P24" t="n">
-        <v>2283.159972732779</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="Q24" t="n">
         <v>2516.421633107662</v>
@@ -6121,13 +6121,13 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>699.2677182139842</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="C25" t="n">
-        <v>530.3315352860773</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="D25" t="n">
-        <v>530.3315352860773</v>
+        <v>382.4184417036842</v>
       </c>
       <c r="E25" t="n">
         <v>382.4184417036842</v>
@@ -6139,10 +6139,10 @@
         <v>235.5284942057738</v>
       </c>
       <c r="H25" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I25" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J25" t="n">
         <v>174.0526814782958</v>
@@ -6172,25 +6172,25 @@
         <v>2379.917379832663</v>
       </c>
       <c r="S25" t="n">
-        <v>2379.917379832663</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T25" t="n">
-        <v>2160.315914855604</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U25" t="n">
-        <v>1871.240688199802</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V25" t="n">
-        <v>1616.556199993915</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W25" t="n">
-        <v>1329.698313085771</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X25" t="n">
-        <v>1101.708762187754</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y25" t="n">
-        <v>880.9161830442239</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
     <row r="26">
@@ -6200,76 +6200,76 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C26" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611464</v>
       </c>
       <c r="D26" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E26" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F26" t="n">
-        <v>793.7736536168609</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G26" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H26" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I26" t="n">
-        <v>95.34095638192451</v>
+        <v>95.34095638192602</v>
       </c>
       <c r="J26" t="n">
-        <v>378.1925803111701</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K26" t="n">
-        <v>852.8523611075794</v>
+        <v>852.852361107581</v>
       </c>
       <c r="L26" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M26" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N26" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O26" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P26" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q26" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R26" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S26" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T26" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U26" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V26" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W26" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X26" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y26" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="27">
@@ -6288,7 +6288,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E27" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F27" t="n">
         <v>314.2396613568978</v>
@@ -6297,34 +6297,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H27" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I27" t="n">
-        <v>95.58405025273905</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J27" t="n">
-        <v>245.2306927803938</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K27" t="n">
-        <v>579.1554649516144</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L27" t="n">
-        <v>1074.481071167373</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M27" t="n">
-        <v>1074.481071167373</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N27" t="n">
-        <v>1702.07903472198</v>
+        <v>1731.250242493492</v>
       </c>
       <c r="O27" t="n">
-        <v>2129.438138565707</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="P27" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q27" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R27" t="n">
         <v>2553.061288060775</v>
@@ -6358,28 +6358,28 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>696.7084350851671</v>
+        <v>559.7594328861248</v>
       </c>
       <c r="C28" t="n">
-        <v>550.637687073287</v>
+        <v>390.823249958218</v>
       </c>
       <c r="D28" t="n">
-        <v>550.637687073287</v>
+        <v>240.7066105458823</v>
       </c>
       <c r="E28" t="n">
-        <v>402.7245934908938</v>
+        <v>240.7066105458823</v>
       </c>
       <c r="F28" t="n">
-        <v>402.7245934908938</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="G28" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="H28" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I28" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J28" t="n">
         <v>174.0526814782958</v>
@@ -6409,25 +6409,25 @@
         <v>2379.917379832663</v>
       </c>
       <c r="S28" t="n">
-        <v>2379.917379832663</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T28" t="n">
-        <v>2160.315914855604</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U28" t="n">
-        <v>1871.240688199802</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V28" t="n">
-        <v>1616.556199993915</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W28" t="n">
-        <v>1327.139029956954</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X28" t="n">
-        <v>1099.149479058937</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y28" t="n">
-        <v>878.3568999154069</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
     <row r="29">
@@ -6458,25 +6458,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I29" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192548</v>
       </c>
       <c r="J29" t="n">
-        <v>378.1925803111718</v>
+        <v>378.1925803111708</v>
       </c>
       <c r="K29" t="n">
-        <v>852.8523611075811</v>
+        <v>852.8523611075802</v>
       </c>
       <c r="L29" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M29" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N29" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O29" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P29" t="n">
         <v>4194.413870694707</v>
@@ -6537,28 +6537,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I30" t="n">
-        <v>95.58405025273905</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J30" t="n">
-        <v>95.58405025273905</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="K30" t="n">
-        <v>95.58405025273905</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="L30" t="n">
-        <v>590.9096564684978</v>
+        <v>923.0670414349513</v>
       </c>
       <c r="M30" t="n">
-        <v>1188.28814409505</v>
+        <v>923.0670414349513</v>
       </c>
       <c r="N30" t="n">
-        <v>1815.886107649656</v>
+        <v>1550.665004989558</v>
       </c>
       <c r="O30" t="n">
-        <v>2367.795837888943</v>
+        <v>2102.574735228845</v>
       </c>
       <c r="P30" t="n">
-        <v>2367.795837888943</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q30" t="n">
         <v>2516.421633107662</v>
@@ -6595,22 +6595,22 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>696.7084350851671</v>
+        <v>962.6357307816191</v>
       </c>
       <c r="C31" t="n">
-        <v>558.0193492433381</v>
+        <v>793.6995478537123</v>
       </c>
       <c r="D31" t="n">
-        <v>407.9027098310023</v>
+        <v>697.5276345711973</v>
       </c>
       <c r="E31" t="n">
-        <v>407.9027098310023</v>
+        <v>549.6145409888042</v>
       </c>
       <c r="F31" t="n">
-        <v>261.0127623330919</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="G31" t="n">
-        <v>93.81666304797187</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H31" t="n">
         <v>93.81666304797187</v>
@@ -6646,25 +6646,25 @@
         <v>2379.917379832663</v>
       </c>
       <c r="S31" t="n">
-        <v>2379.917379832663</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T31" t="n">
-        <v>2160.315914855604</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U31" t="n">
-        <v>1871.240688199802</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V31" t="n">
-        <v>1616.556199993915</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W31" t="n">
-        <v>1327.139029956954</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X31" t="n">
-        <v>1099.149479058937</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="Y31" t="n">
-        <v>878.3568999154069</v>
+        <v>1144.284195611859</v>
       </c>
     </row>
     <row r="32">
@@ -6692,16 +6692,16 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H32" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I32" t="n">
-        <v>95.34095638192571</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J32" t="n">
-        <v>378.1925803111714</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K32" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075802</v>
       </c>
       <c r="L32" t="n">
         <v>1478.611553332387</v>
@@ -6710,37 +6710,37 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N32" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O32" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P32" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q32" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R32" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S32" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T32" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U32" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V32" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W32" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X32" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y32" t="n">
         <v>2704.375866615997</v>
@@ -6762,7 +6762,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E33" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F33" t="n">
         <v>314.2396613568978</v>
@@ -6771,34 +6771,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H33" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I33" t="n">
-        <v>95.58405025273906</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J33" t="n">
-        <v>95.58405025273906</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="K33" t="n">
-        <v>429.5088224239597</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="L33" t="n">
-        <v>924.8344286397185</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="M33" t="n">
-        <v>1522.21291626627</v>
+        <v>1025.119922845744</v>
       </c>
       <c r="N33" t="n">
-        <v>2149.810879820877</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O33" t="n">
-        <v>2149.810879820877</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P33" t="n">
-        <v>2319.799627685893</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q33" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R33" t="n">
         <v>2553.061288060775</v>
@@ -6832,28 +6832,28 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>945.4026036630049</v>
+        <v>705.9324428257312</v>
       </c>
       <c r="C34" t="n">
-        <v>776.466420735098</v>
+        <v>705.9324428257312</v>
       </c>
       <c r="D34" t="n">
-        <v>626.3497813227623</v>
+        <v>555.8158034133954</v>
       </c>
       <c r="E34" t="n">
-        <v>626.3497813227623</v>
+        <v>407.9027098310023</v>
       </c>
       <c r="F34" t="n">
-        <v>479.4598338248519</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G34" t="n">
-        <v>312.2637345397318</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H34" t="n">
-        <v>170.5519033819299</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I34" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J34" t="n">
         <v>174.0526814782958</v>
@@ -6880,28 +6880,28 @@
         <v>2446.963083580261</v>
       </c>
       <c r="R34" t="n">
-        <v>2446.963083580261</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S34" t="n">
-        <v>2446.963083580261</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T34" t="n">
-        <v>2227.361618603202</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U34" t="n">
-        <v>1938.2863919474</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V34" t="n">
-        <v>1683.601903741513</v>
+        <v>1444.131742904239</v>
       </c>
       <c r="W34" t="n">
-        <v>1394.184733704552</v>
+        <v>1154.714572867279</v>
       </c>
       <c r="X34" t="n">
-        <v>1166.195182806535</v>
+        <v>926.7250219692613</v>
       </c>
       <c r="Y34" t="n">
-        <v>945.4026036630049</v>
+        <v>705.9324428257312</v>
       </c>
     </row>
     <row r="35">
@@ -6914,7 +6914,7 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C35" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D35" t="n">
         <v>1590.547811004713</v>
@@ -6929,55 +6929,55 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H35" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I35" t="n">
-        <v>95.34095638192503</v>
+        <v>95.34095638192598</v>
       </c>
       <c r="J35" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K35" t="n">
-        <v>852.8523611075811</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L35" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M35" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N35" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O35" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P35" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q35" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R35" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S35" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T35" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U35" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V35" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W35" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X35" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y35" t="n">
         <v>2704.375866615997</v>
@@ -6999,7 +6999,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E36" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F36" t="n">
         <v>314.2396613568978</v>
@@ -7008,22 +7008,22 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H36" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I36" t="n">
-        <v>95.58405025273906</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J36" t="n">
-        <v>95.58405025273906</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="K36" t="n">
-        <v>429.5088224239597</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="L36" t="n">
-        <v>924.8344286397185</v>
+        <v>923.0670414349513</v>
       </c>
       <c r="M36" t="n">
-        <v>1307.627092998424</v>
+        <v>923.0670414349513</v>
       </c>
       <c r="N36" t="n">
         <v>1307.627092998424</v>
@@ -7069,28 +7069,28 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>950.7540666811332</v>
+        <v>1016.58045691144</v>
       </c>
       <c r="C37" t="n">
-        <v>781.8178837532263</v>
+        <v>847.644273983533</v>
       </c>
       <c r="D37" t="n">
-        <v>631.7012443408905</v>
+        <v>697.5276345711973</v>
       </c>
       <c r="E37" t="n">
-        <v>631.7012443408905</v>
+        <v>549.6145409888042</v>
       </c>
       <c r="F37" t="n">
-        <v>484.8112968429802</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="G37" t="n">
-        <v>317.6151975578601</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H37" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I37" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J37" t="n">
         <v>174.0526814782958</v>
@@ -7120,25 +7120,25 @@
         <v>2379.917379832663</v>
       </c>
       <c r="S37" t="n">
-        <v>2379.917379832663</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T37" t="n">
-        <v>2160.315914855604</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U37" t="n">
-        <v>1871.240688199802</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V37" t="n">
-        <v>1616.556199993915</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W37" t="n">
-        <v>1581.18466155292</v>
+        <v>1426.218472639697</v>
       </c>
       <c r="X37" t="n">
-        <v>1353.195110654903</v>
+        <v>1198.22892174168</v>
       </c>
       <c r="Y37" t="n">
-        <v>1132.402531511373</v>
+        <v>1198.22892174168</v>
       </c>
     </row>
     <row r="38">
@@ -7163,7 +7163,7 @@
         <v>793.7736536168613</v>
       </c>
       <c r="G38" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H38" t="n">
         <v>93.81666304797187</v>
@@ -7184,16 +7184,16 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N38" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O38" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P38" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q38" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R38" t="n">
         <v>4690.833152398593</v>
@@ -7251,25 +7251,25 @@
         <v>95.58405025273905</v>
       </c>
       <c r="J39" t="n">
-        <v>245.2306927803938</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="K39" t="n">
-        <v>245.2306927803938</v>
+        <v>429.5088224239596</v>
       </c>
       <c r="L39" t="n">
-        <v>740.5562989961526</v>
+        <v>924.8344286397185</v>
       </c>
       <c r="M39" t="n">
-        <v>1337.934786622704</v>
+        <v>1522.21291626627</v>
       </c>
       <c r="N39" t="n">
-        <v>1540.888753373306</v>
+        <v>1522.21291626627</v>
       </c>
       <c r="O39" t="n">
-        <v>2092.798483612593</v>
+        <v>2074.122646505557</v>
       </c>
       <c r="P39" t="n">
-        <v>2516.421633107662</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q39" t="n">
         <v>2516.421633107662</v>
@@ -7306,19 +7306,19 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>874.8686257536381</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="C40" t="n">
-        <v>705.9324428257312</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="D40" t="n">
-        <v>555.8158034133954</v>
+        <v>363.7369613277359</v>
       </c>
       <c r="E40" t="n">
-        <v>407.9027098310023</v>
+        <v>215.8238677453428</v>
       </c>
       <c r="F40" t="n">
-        <v>261.0127623330919</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G40" t="n">
         <v>93.81666304797187</v>
@@ -7375,7 +7375,7 @@
         <v>916.2946447138415</v>
       </c>
       <c r="Y40" t="n">
-        <v>916.2946447138415</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
     <row r="41">
@@ -7397,37 +7397,37 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F41" t="n">
-        <v>793.7736536168612</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G41" t="n">
-        <v>379.8308874362687</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H41" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I41" t="n">
-        <v>95.34095638192598</v>
+        <v>95.34095638192451</v>
       </c>
       <c r="J41" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111701</v>
       </c>
       <c r="K41" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075794</v>
       </c>
       <c r="L41" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M41" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N41" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O41" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P41" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q41" t="n">
         <v>4562.265728852255</v>
@@ -7488,28 +7488,28 @@
         <v>95.58405025273905</v>
       </c>
       <c r="J42" t="n">
-        <v>95.58405025273905</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K42" t="n">
-        <v>429.5088224239596</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L42" t="n">
-        <v>924.8344286397185</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="M42" t="n">
-        <v>1522.21291626627</v>
+        <v>1176.533952578166</v>
       </c>
       <c r="N42" t="n">
-        <v>2129.438138565707</v>
+        <v>1804.131916132773</v>
       </c>
       <c r="O42" t="n">
-        <v>2129.438138565707</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="P42" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q42" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R42" t="n">
         <v>2553.061288060775</v>
@@ -7543,16 +7543,16 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>662.1522880254209</v>
+        <v>741.843151638089</v>
       </c>
       <c r="C43" t="n">
-        <v>493.2161050975141</v>
+        <v>572.9069687101821</v>
       </c>
       <c r="D43" t="n">
-        <v>343.0994656851783</v>
+        <v>422.7903292978464</v>
       </c>
       <c r="E43" t="n">
-        <v>343.0994656851783</v>
+        <v>422.7903292978464</v>
       </c>
       <c r="F43" t="n">
         <v>343.0994656851783</v>
@@ -7591,28 +7591,28 @@
         <v>2446.963083580261</v>
       </c>
       <c r="R43" t="n">
-        <v>2446.963083580261</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S43" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T43" t="n">
-        <v>2044.506784258106</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U43" t="n">
-        <v>1755.431557602304</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V43" t="n">
-        <v>1500.747069396417</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W43" t="n">
-        <v>1211.329899359456</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X43" t="n">
-        <v>983.3403484614391</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="Y43" t="n">
-        <v>843.8007528556607</v>
+        <v>923.4916164683287</v>
       </c>
     </row>
     <row r="44">
@@ -7643,10 +7643,10 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I44" t="n">
-        <v>95.34095638192451</v>
+        <v>95.34095638192598</v>
       </c>
       <c r="J44" t="n">
-        <v>378.1925803111701</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K44" t="n">
         <v>852.8523611075794</v>
@@ -7725,28 +7725,28 @@
         <v>95.58405025273905</v>
       </c>
       <c r="J45" t="n">
-        <v>245.2306927803938</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="K45" t="n">
-        <v>579.1554649516144</v>
+        <v>429.5088224239596</v>
       </c>
       <c r="L45" t="n">
-        <v>1074.481071167373</v>
+        <v>429.5088224239596</v>
       </c>
       <c r="M45" t="n">
-        <v>1140.291933891999</v>
+        <v>680.0291294438171</v>
       </c>
       <c r="N45" t="n">
-        <v>1767.889897446606</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O45" t="n">
-        <v>2319.799627685893</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P45" t="n">
-        <v>2319.799627685893</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q45" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R45" t="n">
         <v>2553.061288060775</v>
@@ -7780,22 +7780,22 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>951.7772127656159</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="C46" t="n">
-        <v>782.841029837709</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="D46" t="n">
-        <v>632.7243904253733</v>
+        <v>194.8007783998291</v>
       </c>
       <c r="E46" t="n">
-        <v>484.8112968429802</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="F46" t="n">
-        <v>484.8112968429802</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="G46" t="n">
-        <v>317.6151975578601</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="H46" t="n">
         <v>175.9033664000582</v>
@@ -7837,19 +7837,19 @@
         <v>1977.461080510509</v>
       </c>
       <c r="U46" t="n">
-        <v>1836.89229584329</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V46" t="n">
-        <v>1582.207807637403</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W46" t="n">
-        <v>1582.207807637403</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X46" t="n">
-        <v>1354.218256739386</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y46" t="n">
-        <v>1133.425677595856</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
   </sheetData>
@@ -23416,25 +23416,25 @@
         <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>148.6154730182124</v>
+        <v>19.50758019582707</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>138.4949402405078</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23650,28 +23650,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>36.41624546988314</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
         <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>81.2658363185655</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23701,10 +23701,10 @@
         <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>29.94462611521624</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
         <v>0</v>
@@ -23887,10 +23887,10 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>46.45968844823057</v>
       </c>
       <c r="D19" t="n">
         <v>0</v>
@@ -23899,13 +23899,13 @@
         <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I19" t="n">
         <v>81.26583631856552</v>
@@ -23935,16 +23935,16 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
         <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>70.46607471595058</v>
+        <v>0</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -24130,7 +24130,7 @@
         <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
         <v>0</v>
@@ -24142,10 +24142,10 @@
         <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24190,10 +24190,10 @@
         <v>0</v>
       </c>
       <c r="X22" t="n">
-        <v>28.95742156329226</v>
+        <v>180.5487903941879</v>
       </c>
       <c r="Y22" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="23">
@@ -24364,13 +24364,13 @@
         <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
-        <v>148.6154730182124</v>
+        <v>18.49466557218872</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
         <v>0</v>
@@ -24412,7 +24412,7 @@
         <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
         <v>0</v>
@@ -24424,7 +24424,7 @@
         <v>0</v>
       </c>
       <c r="W25" t="n">
-        <v>2.533690297528779</v>
+        <v>0</v>
       </c>
       <c r="X25" t="n">
         <v>0</v>
@@ -24598,25 +24598,25 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0</v>
+        <v>45.44677382459261</v>
       </c>
       <c r="C28" t="n">
-        <v>22.63678056686649</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I28" t="n">
         <v>81.26583631856552</v>
@@ -24649,7 +24649,7 @@
         <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
         <v>0</v>
@@ -24838,13 +24838,13 @@
         <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>29.94462611521706</v>
+        <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>53.40527886852252</v>
       </c>
       <c r="E31" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
         <v>0</v>
@@ -24853,7 +24853,7 @@
         <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
         <v>81.26583631856552</v>
@@ -24886,7 +24886,7 @@
         <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
         <v>0</v>
@@ -24901,10 +24901,10 @@
         <v>0</v>
       </c>
       <c r="X31" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y31" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="32">
@@ -25075,13 +25075,13 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C34" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
         <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
         <v>0</v>
@@ -25090,10 +25090,10 @@
         <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I34" t="n">
-        <v>5.297948387947045</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25120,10 +25120,10 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T34" t="n">
         <v>0</v>
@@ -25132,7 +25132,7 @@
         <v>0</v>
       </c>
       <c r="V34" t="n">
-        <v>0</v>
+        <v>10.32607348286541</v>
       </c>
       <c r="W34" t="n">
         <v>0</v>
@@ -25318,7 +25318,7 @@
         <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
         <v>0</v>
@@ -25330,7 +25330,7 @@
         <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25360,7 +25360,7 @@
         <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>181.0262860016433</v>
+        <v>0</v>
       </c>
       <c r="T37" t="n">
         <v>0</v>
@@ -25372,13 +25372,13 @@
         <v>0</v>
       </c>
       <c r="W37" t="n">
-        <v>251.5051752800062</v>
+        <v>279.1149342575596</v>
       </c>
       <c r="X37" t="n">
         <v>0</v>
       </c>
       <c r="Y37" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="38">
@@ -25546,10 +25546,10 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>138.8202214113359</v>
+        <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
         <v>0</v>
@@ -25558,10 +25558,10 @@
         <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>24.63391537253403</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H40" t="n">
         <v>140.2947128462239</v>
@@ -25615,7 +25615,7 @@
         <v>0</v>
       </c>
       <c r="Y40" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41">
@@ -25795,7 +25795,7 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
-        <v>145.4210480229312</v>
+        <v>66.52709304638987</v>
       </c>
       <c r="G43" t="n">
         <v>0</v>
@@ -25831,7 +25831,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
         <v>0</v>
@@ -25849,10 +25849,10 @@
         <v>0</v>
       </c>
       <c r="X43" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y43" t="n">
-        <v>80.44045370237413</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44">
@@ -26029,16 +26029,16 @@
         <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>127.7255247667961</v>
       </c>
       <c r="F46" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I46" t="n">
         <v>0</v>
@@ -26077,13 +26077,13 @@
         <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>147.0213775686976</v>
+        <v>0</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
       </c>
       <c r="W46" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X46" t="n">
         <v>0</v>
@@ -26163,7 +26163,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>781427.9248658016</v>
+        <v>781427.9248658014</v>
       </c>
     </row>
     <row r="8">
@@ -26171,7 +26171,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>781427.9248658011</v>
+        <v>781427.9248658015</v>
       </c>
     </row>
     <row r="9">
@@ -26179,7 +26179,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>781427.9248658014</v>
+        <v>781427.9248658015</v>
       </c>
     </row>
     <row r="10">
@@ -26187,7 +26187,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>781427.9248658015</v>
+        <v>781427.9248658014</v>
       </c>
     </row>
     <row r="11">
@@ -26195,7 +26195,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>781427.9248658015</v>
+        <v>781427.9248658014</v>
       </c>
     </row>
     <row r="12">
@@ -26203,7 +26203,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>781427.9248658016</v>
+        <v>781427.9248658015</v>
       </c>
     </row>
     <row r="13">
@@ -26211,7 +26211,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>781427.9248658016</v>
+        <v>781427.9248658014</v>
       </c>
     </row>
     <row r="14">
@@ -26227,7 +26227,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>781427.9248658015</v>
+        <v>781427.9248658014</v>
       </c>
     </row>
     <row r="16">
@@ -26235,7 +26235,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>781427.9248658016</v>
+        <v>781427.9248658014</v>
       </c>
     </row>
   </sheetData>
@@ -26311,49 +26311,49 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>656833.4158914268</v>
+        <v>656833.4158914267</v>
       </c>
       <c r="C2" t="n">
+        <v>656833.4158914266</v>
+      </c>
+      <c r="D2" t="n">
         <v>656833.4158914267</v>
       </c>
-      <c r="D2" t="n">
-        <v>656833.4158914266</v>
-      </c>
       <c r="E2" t="n">
-        <v>645717.2797520049</v>
+        <v>645717.2797520051</v>
       </c>
       <c r="F2" t="n">
-        <v>645717.279752005</v>
+        <v>645717.2797520052</v>
       </c>
       <c r="G2" t="n">
-        <v>645717.279752005</v>
+        <v>645717.2797520051</v>
       </c>
       <c r="H2" t="n">
+        <v>645717.2797520054</v>
+      </c>
+      <c r="I2" t="n">
+        <v>645717.2797520052</v>
+      </c>
+      <c r="J2" t="n">
+        <v>645717.2797520052</v>
+      </c>
+      <c r="K2" t="n">
         <v>645717.2797520051</v>
       </c>
-      <c r="I2" t="n">
+      <c r="L2" t="n">
+        <v>645717.2797520054</v>
+      </c>
+      <c r="M2" t="n">
+        <v>645717.2797520054</v>
+      </c>
+      <c r="N2" t="n">
         <v>645717.2797520051</v>
-      </c>
-      <c r="J2" t="n">
-        <v>645717.2797520051</v>
-      </c>
-      <c r="K2" t="n">
-        <v>645717.279752005</v>
-      </c>
-      <c r="L2" t="n">
-        <v>645717.2797520051</v>
-      </c>
-      <c r="M2" t="n">
-        <v>645717.2797520052</v>
-      </c>
-      <c r="N2" t="n">
-        <v>645717.2797520052</v>
       </c>
       <c r="O2" t="n">
         <v>645717.2797520052</v>
       </c>
       <c r="P2" t="n">
-        <v>645717.279752005</v>
+        <v>645717.2797520051</v>
       </c>
     </row>
     <row r="3">
@@ -26372,10 +26372,10 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>325412.4618073552</v>
+        <v>325412.4618073551</v>
       </c>
       <c r="F3" t="n">
-        <v>2.822202046006388e-10</v>
+        <v>1.797263848857256e-10</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
@@ -26396,7 +26396,7 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>85055.02793551187</v>
+        <v>85055.02793551178</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26415,46 +26415,46 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>93596.74410405254</v>
+        <v>93596.74410405256</v>
       </c>
       <c r="C4" t="n">
-        <v>93596.74410405253</v>
+        <v>93596.74410405252</v>
       </c>
       <c r="D4" t="n">
-        <v>93596.74410405257</v>
+        <v>93596.74410405252</v>
       </c>
       <c r="E4" t="n">
+        <v>15436.64000687967</v>
+      </c>
+      <c r="F4" t="n">
+        <v>15436.64000687968</v>
+      </c>
+      <c r="G4" t="n">
+        <v>15436.64000687965</v>
+      </c>
+      <c r="H4" t="n">
+        <v>15436.64000687967</v>
+      </c>
+      <c r="I4" t="n">
+        <v>15436.64000687965</v>
+      </c>
+      <c r="J4" t="n">
+        <v>15436.64000687965</v>
+      </c>
+      <c r="K4" t="n">
+        <v>15436.64000687969</v>
+      </c>
+      <c r="L4" t="n">
+        <v>15436.64000687967</v>
+      </c>
+      <c r="M4" t="n">
         <v>15436.64000687966</v>
-      </c>
-      <c r="F4" t="n">
-        <v>15436.64000687954</v>
-      </c>
-      <c r="G4" t="n">
-        <v>15436.64000687964</v>
-      </c>
-      <c r="H4" t="n">
-        <v>15436.64000687951</v>
-      </c>
-      <c r="I4" t="n">
-        <v>15436.64000687964</v>
-      </c>
-      <c r="J4" t="n">
-        <v>15436.64000687967</v>
-      </c>
-      <c r="K4" t="n">
-        <v>15436.64000687967</v>
-      </c>
-      <c r="L4" t="n">
-        <v>15436.64000687965</v>
-      </c>
-      <c r="M4" t="n">
-        <v>15436.64000687967</v>
       </c>
       <c r="N4" t="n">
         <v>15436.64000687967</v>
       </c>
       <c r="O4" t="n">
-        <v>15436.64000687967</v>
+        <v>15436.64000687966</v>
       </c>
       <c r="P4" t="n">
         <v>15436.64000687966</v>
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-873442.0145016116</v>
+        <v>-873442.0145016117</v>
       </c>
       <c r="C6" t="n">
+        <v>455302.7312259808</v>
+      </c>
+      <c r="D6" t="n">
         <v>455302.7312259809</v>
       </c>
-      <c r="D6" t="n">
-        <v>455302.7312259808</v>
-      </c>
       <c r="E6" t="n">
-        <v>203745.6481138629</v>
+        <v>203710.9101884275</v>
       </c>
       <c r="F6" t="n">
-        <v>529158.1099212181</v>
+        <v>529123.3719957826</v>
       </c>
       <c r="G6" t="n">
-        <v>529158.1099212184</v>
+        <v>529123.3719957827</v>
       </c>
       <c r="H6" t="n">
-        <v>529158.1099212186</v>
+        <v>529123.3719957829</v>
       </c>
       <c r="I6" t="n">
-        <v>529158.1099212184</v>
+        <v>529123.3719957827</v>
       </c>
       <c r="J6" t="n">
-        <v>311626.9075239408</v>
+        <v>311592.1695985053</v>
       </c>
       <c r="K6" t="n">
-        <v>529158.1099212182</v>
+        <v>529123.3719957827</v>
       </c>
       <c r="L6" t="n">
-        <v>529158.1099212184</v>
+        <v>529123.3719957829</v>
       </c>
       <c r="M6" t="n">
-        <v>444103.0819857065</v>
+        <v>444068.344060271</v>
       </c>
       <c r="N6" t="n">
-        <v>529158.1099212185</v>
+        <v>529123.3719957827</v>
       </c>
       <c r="O6" t="n">
-        <v>529158.1099212185</v>
+        <v>529123.3719957828</v>
       </c>
       <c r="P6" t="n">
-        <v>529158.1099212182</v>
+        <v>529123.3719957827</v>
       </c>
     </row>
   </sheetData>
@@ -26787,40 +26787,40 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>831.4014554022928</v>
+        <v>831.4014554022926</v>
       </c>
       <c r="C4" t="n">
         <v>831.4014554022928</v>
       </c>
       <c r="D4" t="n">
-        <v>831.4014554022925</v>
+        <v>831.4014554022929</v>
       </c>
       <c r="E4" t="n">
         <v>1172.708288099648</v>
       </c>
       <c r="F4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="G4" t="n">
         <v>1172.708288099649</v>
       </c>
       <c r="H4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="I4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="J4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="K4" t="n">
         <v>1172.708288099648</v>
       </c>
       <c r="L4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="M4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="N4" t="n">
         <v>1172.708288099648</v>
@@ -26969,7 +26969,7 @@
         <v>278.1987997483754</v>
       </c>
       <c r="F3" t="n">
-        <v>4.547473508864641e-13</v>
+        <v>2.273736754432321e-13</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
@@ -27009,7 +27009,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>831.4014554022928</v>
+        <v>831.4014554022926</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -27018,7 +27018,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>341.3068326973558</v>
+        <v>341.3068326973555</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27042,7 +27042,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>341.3068326973558</v>
+        <v>341.3068326973555</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27255,7 +27255,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>831.4014554022928</v>
+        <v>831.4014554022926</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27264,7 +27264,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>341.3068326973558</v>
+        <v>341.3068326973555</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27376,7 +27376,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
@@ -27385,7 +27385,7 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
         <v>400</v>
@@ -27397,7 +27397,7 @@
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>41.57692977292595</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27430,10 +27430,10 @@
         <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>203.9179701396201</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -27442,10 +27442,10 @@
         <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>129.939099431467</v>
+        <v>240.9947042380805</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="3">
@@ -27458,7 +27458,7 @@
         <v>0</v>
       </c>
       <c r="C3" t="n">
-        <v>3.694822225952521e-13</v>
+        <v>0</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
@@ -27540,10 +27540,10 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
         <v>145.4210480229312</v>
@@ -27552,10 +27552,10 @@
         <v>166.0258082590282</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -27582,25 +27582,25 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S4" t="n">
-        <v>189.7690253314419</v>
+        <v>75.40832771011975</v>
       </c>
       <c r="T4" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>31.39552649067426</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
         <v>218.5846533520948</v>
@@ -27613,7 +27613,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
         <v>0</v>
@@ -27622,16 +27622,16 @@
         <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G5" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
@@ -27670,19 +27670,19 @@
         <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>240.1912326468613</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>332.6248785068131</v>
       </c>
       <c r="X5" t="n">
         <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -27774,13 +27774,13 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>18.81192859552075</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
         <v>145.4210480229312</v>
@@ -27825,19 +27825,19 @@
         <v>189.7690253314419</v>
       </c>
       <c r="T7" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
         <v>286.2118382056129</v>
       </c>
       <c r="V7" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
-        <v>128.6977699968961</v>
+        <v>0</v>
       </c>
       <c r="Y7" t="n">
         <v>218.5846533520948</v>
@@ -27850,7 +27850,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
         <v>0</v>
@@ -27859,16 +27859,16 @@
         <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>19.51914657901801</v>
+        <v>400</v>
       </c>
       <c r="G8" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
@@ -27901,10 +27901,10 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>203.9179701396201</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
         <v>0</v>
@@ -27916,10 +27916,10 @@
         <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>240.1912326468607</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="9">
@@ -28011,7 +28011,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
-        <v>33.91144571517853</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
         <v>148.6154730182124</v>
@@ -28020,7 +28020,7 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
         <v>166.0258082590282</v>
@@ -28029,7 +28029,7 @@
         <v>144.7550149143208</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -28059,13 +28059,13 @@
         <v>88.93215267004733</v>
       </c>
       <c r="S10" t="n">
-        <v>189.7690253314419</v>
+        <v>100.8720197208361</v>
       </c>
       <c r="T10" t="n">
         <v>219.5489492761692</v>
       </c>
       <c r="U10" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -28333,7 +28333,7 @@
         <v>0</v>
       </c>
       <c r="E14" t="n">
-        <v>0</v>
+        <v>3.979039320256561e-13</v>
       </c>
       <c r="F14" t="n">
         <v>0</v>
@@ -28387,7 +28387,7 @@
         <v>0</v>
       </c>
       <c r="W14" t="n">
-        <v>-5.104013677730748e-13</v>
+        <v>0</v>
       </c>
       <c r="X14" t="n">
         <v>0</v>
@@ -28567,7 +28567,7 @@
         <v>0</v>
       </c>
       <c r="D17" t="n">
-        <v>-9.438268318636815e-16</v>
+        <v>0</v>
       </c>
       <c r="E17" t="n">
         <v>0</v>
@@ -28624,7 +28624,7 @@
         <v>0</v>
       </c>
       <c r="W17" t="n">
-        <v>-9.65407064635154e-14</v>
+        <v>0</v>
       </c>
       <c r="X17" t="n">
         <v>0</v>
@@ -29515,7 +29515,7 @@
         <v>0</v>
       </c>
       <c r="D29" t="n">
-        <v>0</v>
+        <v>5.115907697472721e-13</v>
       </c>
       <c r="E29" t="n">
         <v>0</v>
@@ -30192,7 +30192,7 @@
         <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>1.319714707885093e-12</v>
+        <v>0</v>
       </c>
       <c r="T37" t="n">
         <v>0</v>
@@ -31616,7 +31616,7 @@
         <v>609.6478166837925</v>
       </c>
       <c r="O9" t="n">
-        <v>557.7086478970255</v>
+        <v>557.708647897025</v>
       </c>
       <c r="P9" t="n">
         <v>447.6103584002927</v>
@@ -31838,19 +31838,19 @@
         <v>99.52238</v>
       </c>
       <c r="J12" t="n">
-        <v>126.8376266666667</v>
+        <v>147.4873481937412</v>
       </c>
       <c r="K12" t="n">
-        <v>163.5723821283055</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L12" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M12" t="n">
         <v>745.5466476862121</v>
       </c>
       <c r="N12" t="n">
-        <v>765.2790490071785</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O12" t="n">
         <v>700.0808204437243</v>
@@ -31859,10 +31859,10 @@
         <v>561.8765786214698</v>
       </c>
       <c r="Q12" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R12" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S12" t="n">
         <v>54.65449286742438</v>
@@ -31987,40 +31987,40 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>5.499398996348435</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H14" t="n">
-        <v>56.32071997135342</v>
+        <v>56.32071997135341</v>
       </c>
       <c r="I14" t="n">
-        <v>212.0155798067233</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J14" t="n">
-        <v>466.7546155663284</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K14" t="n">
-        <v>699.5441750817578</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L14" t="n">
-        <v>867.8464071162564</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M14" t="n">
-        <v>965.6463440175678</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N14" t="n">
-        <v>981.2715114159429</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O14" t="n">
-        <v>926.5868626460031</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P14" t="n">
-        <v>790.8204499236509</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q14" t="n">
-        <v>593.8732233669225</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R14" t="n">
-        <v>345.4516222043727</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S14" t="n">
         <v>125.3175546292901</v>
@@ -32029,7 +32029,7 @@
         <v>24.07361910651528</v>
       </c>
       <c r="U14" t="n">
-        <v>0.4399519197078747</v>
+        <v>0.4399519197078746</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -32075,34 +32075,34 @@
         <v>99.52238</v>
       </c>
       <c r="J15" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K15" t="n">
-        <v>475.1391886422587</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L15" t="n">
-        <v>638.8832749473074</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M15" t="n">
-        <v>745.5466476862124</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N15" t="n">
-        <v>765.2790490071787</v>
+        <v>368.6279838366847</v>
       </c>
       <c r="O15" t="n">
-        <v>142.5962444444444</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P15" t="n">
-        <v>506.0735392239779</v>
+        <v>561.8765786214699</v>
       </c>
       <c r="Q15" t="n">
-        <v>139.9817740860215</v>
+        <v>375.5996128485291</v>
       </c>
       <c r="R15" t="n">
         <v>182.6892564418561</v>
       </c>
       <c r="S15" t="n">
-        <v>54.6544928674244</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T15" t="n">
         <v>11.86008947937734</v>
@@ -32145,13 +32145,13 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>2.466841066189904</v>
+        <v>2.466841066189903</v>
       </c>
       <c r="H16" t="n">
         <v>21.93245966121571</v>
       </c>
       <c r="I16" t="n">
-        <v>74.18463860869278</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J16" t="n">
         <v>174.4056633796262</v>
@@ -32169,7 +32169,7 @@
         <v>377.4939606106789</v>
       </c>
       <c r="O16" t="n">
-        <v>348.6767717920059</v>
+        <v>348.6767717920058</v>
       </c>
       <c r="P16" t="n">
         <v>298.3532140417315</v>
@@ -32181,7 +32181,7 @@
         <v>110.9181446670478</v>
       </c>
       <c r="S16" t="n">
-        <v>42.99031203532768</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T16" t="n">
         <v>10.54013910099322</v>
@@ -32309,7 +32309,7 @@
         <v>28.41775520521101</v>
       </c>
       <c r="I18" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J18" t="n">
         <v>126.8376266666667</v>
@@ -32324,16 +32324,16 @@
         <v>745.5466476862122</v>
       </c>
       <c r="N18" t="n">
-        <v>765.2790490071786</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O18" t="n">
-        <v>549.9198891312099</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P18" t="n">
-        <v>133.9744074143302</v>
+        <v>383.9182138639285</v>
       </c>
       <c r="Q18" t="n">
-        <v>139.9817740860215</v>
+        <v>375.5996128485291</v>
       </c>
       <c r="R18" t="n">
         <v>145.679503963964</v>
@@ -32470,7 +32470,7 @@
         <v>212.0155798067232</v>
       </c>
       <c r="J20" t="n">
-        <v>466.7546155663268</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K20" t="n">
         <v>699.5441750817577</v>
@@ -32546,13 +32546,13 @@
         <v>28.41775520521101</v>
       </c>
       <c r="I21" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J21" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K21" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L21" t="n">
         <v>638.8832749473073</v>
@@ -32561,19 +32561,19 @@
         <v>745.5466476862122</v>
       </c>
       <c r="N21" t="n">
-        <v>528.6300513467554</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O21" t="n">
-        <v>700.0808204437244</v>
+        <v>522.1224556861829</v>
       </c>
       <c r="P21" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214699</v>
       </c>
       <c r="Q21" t="n">
         <v>375.5996128485291</v>
       </c>
       <c r="R21" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S21" t="n">
         <v>54.65449286742439</v>
@@ -32783,19 +32783,19 @@
         <v>28.41775520521101</v>
       </c>
       <c r="I24" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J24" t="n">
         <v>126.8376266666667</v>
       </c>
       <c r="K24" t="n">
-        <v>475.1391886422586</v>
+        <v>287.9685048518521</v>
       </c>
       <c r="L24" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M24" t="n">
-        <v>396.9700886943664</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N24" t="n">
         <v>765.2790490071786</v>
@@ -32804,10 +32804,10 @@
         <v>700.0808204437244</v>
       </c>
       <c r="P24" t="n">
-        <v>561.8765786214699</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q24" t="n">
-        <v>375.5996128485291</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R24" t="n">
         <v>182.6892564418561</v>
@@ -32941,7 +32941,7 @@
         <v>56.32071997135341</v>
       </c>
       <c r="I26" t="n">
-        <v>212.0155798067217</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J26" t="n">
         <v>466.7546155663283</v>
@@ -33020,7 +33020,7 @@
         <v>28.41775520521101</v>
       </c>
       <c r="I27" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J27" t="n">
         <v>277.9958514420755</v>
@@ -33032,22 +33032,22 @@
         <v>638.8832749473073</v>
       </c>
       <c r="M27" t="n">
-        <v>142.1340339220183</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N27" t="n">
-        <v>765.2790490071786</v>
+        <v>193.1175412796309</v>
       </c>
       <c r="O27" t="n">
-        <v>574.2721069128556</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P27" t="n">
-        <v>561.8765786214699</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q27" t="n">
-        <v>139.9817740860215</v>
+        <v>375.5996128485291</v>
       </c>
       <c r="R27" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S27" t="n">
         <v>54.65449286742439</v>
@@ -33257,19 +33257,19 @@
         <v>28.41775520521101</v>
       </c>
       <c r="I30" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J30" t="n">
         <v>126.8376266666667</v>
       </c>
       <c r="K30" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L30" t="n">
         <v>638.8832749473073</v>
       </c>
       <c r="M30" t="n">
-        <v>745.5466476862122</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N30" t="n">
         <v>765.2790490071786</v>
@@ -33278,10 +33278,10 @@
         <v>700.0808204437244</v>
       </c>
       <c r="P30" t="n">
-        <v>133.9744074143302</v>
+        <v>316.3837382263848</v>
       </c>
       <c r="Q30" t="n">
-        <v>290.1088399635148</v>
+        <v>375.5996128485291</v>
       </c>
       <c r="R30" t="n">
         <v>182.6892564418561</v>
@@ -33494,7 +33494,7 @@
         <v>28.41775520521101</v>
       </c>
       <c r="I33" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J33" t="n">
         <v>126.8376266666667</v>
@@ -33503,25 +33503,25 @@
         <v>475.1391886422586</v>
       </c>
       <c r="L33" t="n">
-        <v>638.8832749473073</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M33" t="n">
         <v>745.5466476862122</v>
       </c>
       <c r="N33" t="n">
-        <v>765.2790490071786</v>
+        <v>416.7024900153327</v>
       </c>
       <c r="O33" t="n">
-        <v>142.5962444444444</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P33" t="n">
-        <v>305.6802133385881</v>
+        <v>561.8765786214699</v>
       </c>
       <c r="Q33" t="n">
         <v>375.5996128485291</v>
       </c>
       <c r="R33" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S33" t="n">
         <v>54.65449286742439</v>
@@ -33664,7 +33664,7 @@
         <v>867.8464071162563</v>
       </c>
       <c r="M35" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175661</v>
       </c>
       <c r="N35" t="n">
         <v>981.2715114159428</v>
@@ -33731,7 +33731,7 @@
         <v>28.41775520521101</v>
       </c>
       <c r="I36" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J36" t="n">
         <v>126.8376266666667</v>
@@ -33743,10 +33743,10 @@
         <v>638.8832749473073</v>
       </c>
       <c r="M36" t="n">
-        <v>528.7932908500036</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N36" t="n">
-        <v>131.3417120833333</v>
+        <v>519.7862086120936</v>
       </c>
       <c r="O36" t="n">
         <v>700.0808204437244</v>
@@ -33904,7 +33904,7 @@
         <v>965.6463440175677</v>
       </c>
       <c r="N38" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159414</v>
       </c>
       <c r="O38" t="n">
         <v>926.5868626460029</v>
@@ -33916,7 +33916,7 @@
         <v>593.8732233669224</v>
       </c>
       <c r="R38" t="n">
-        <v>345.451622204372</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S38" t="n">
         <v>125.3175546292901</v>
@@ -33971,10 +33971,10 @@
         <v>101.3076196007749</v>
       </c>
       <c r="J39" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K39" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L39" t="n">
         <v>638.8832749473073</v>
@@ -33983,16 +33983,16 @@
         <v>745.5466476862122</v>
       </c>
       <c r="N39" t="n">
-        <v>336.3457189021232</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O39" t="n">
         <v>700.0808204437244</v>
       </c>
       <c r="P39" t="n">
-        <v>561.8765786214699</v>
+        <v>345.1232217852615</v>
       </c>
       <c r="Q39" t="n">
-        <v>139.9817740860215</v>
+        <v>375.5996128485291</v>
       </c>
       <c r="R39" t="n">
         <v>182.6892564418561</v>
@@ -34126,7 +34126,7 @@
         <v>56.32071997135341</v>
       </c>
       <c r="I41" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067217</v>
       </c>
       <c r="J41" t="n">
         <v>466.7546155663283</v>
@@ -34150,7 +34150,7 @@
         <v>790.8204499236508</v>
       </c>
       <c r="Q41" t="n">
-        <v>593.8732233669214</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R41" t="n">
         <v>345.4516222043726</v>
@@ -34208,31 +34208,31 @@
         <v>101.3076196007749</v>
       </c>
       <c r="J42" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K42" t="n">
         <v>475.1391886422586</v>
       </c>
       <c r="L42" t="n">
-        <v>638.8832749473073</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M42" t="n">
         <v>745.5466476862122</v>
       </c>
       <c r="N42" t="n">
-        <v>744.7005224868046</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O42" t="n">
-        <v>142.5962444444444</v>
+        <v>626.4629682828346</v>
       </c>
       <c r="P42" t="n">
-        <v>561.8765786214699</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q42" t="n">
-        <v>139.9817740860215</v>
+        <v>375.5996128485291</v>
       </c>
       <c r="R42" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S42" t="n">
         <v>54.65449286742439</v>
@@ -34363,13 +34363,13 @@
         <v>56.32071997135341</v>
       </c>
       <c r="I44" t="n">
-        <v>212.0155798067217</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J44" t="n">
         <v>466.7546155663283</v>
       </c>
       <c r="K44" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817562</v>
       </c>
       <c r="L44" t="n">
         <v>867.8464071162563</v>
@@ -34445,16 +34445,16 @@
         <v>101.3076196007749</v>
       </c>
       <c r="J45" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K45" t="n">
         <v>475.1391886422586</v>
       </c>
       <c r="L45" t="n">
-        <v>638.8832749473073</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M45" t="n">
-        <v>208.6096528357816</v>
+        <v>395.1848490935915</v>
       </c>
       <c r="N45" t="n">
         <v>765.2790490071786</v>
@@ -34463,13 +34463,13 @@
         <v>700.0808204437244</v>
       </c>
       <c r="P45" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214699</v>
       </c>
       <c r="Q45" t="n">
         <v>375.5996128485291</v>
       </c>
       <c r="R45" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S45" t="n">
         <v>54.65449286742439</v>
@@ -35264,7 +35264,7 @@
         <v>478.3061046004592</v>
       </c>
       <c r="O9" t="n">
-        <v>415.1124034525811</v>
+        <v>415.1124034525806</v>
       </c>
       <c r="P9" t="n">
         <v>313.6359509859624</v>
@@ -35486,19 +35486,19 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>20.64972152707456</v>
       </c>
       <c r="K12" t="n">
-        <v>25.73094315394657</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L12" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M12" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N12" t="n">
-        <v>633.9373369238452</v>
+        <v>0</v>
       </c>
       <c r="O12" t="n">
         <v>557.4845759992799</v>
@@ -35507,10 +35507,10 @@
         <v>427.9021712071395</v>
       </c>
       <c r="Q12" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -35641,31 +35641,31 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>1.539690236317341</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J14" t="n">
-        <v>285.7087110396421</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K14" t="n">
-        <v>479.4543240367772</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L14" t="n">
-        <v>632.0799921462692</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M14" t="n">
-        <v>735.3001107902951</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N14" t="n">
-        <v>751.858447819352</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O14" t="n">
-        <v>696.4886512243163</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P14" t="n">
         <v>559.5874541683813</v>
       </c>
       <c r="Q14" t="n">
-        <v>371.567533492473</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R14" t="n">
         <v>129.8660843902405</v>
@@ -35723,31 +35723,31 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K15" t="n">
-        <v>337.2977496678997</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L15" t="n">
-        <v>500.3288951674332</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M15" t="n">
-        <v>603.412613764194</v>
+        <v>0</v>
       </c>
       <c r="N15" t="n">
-        <v>633.9373369238455</v>
+        <v>237.2862717533515</v>
       </c>
       <c r="O15" t="n">
-        <v>0</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P15" t="n">
-        <v>372.0991318096477</v>
+        <v>427.9021712071396</v>
       </c>
       <c r="Q15" t="n">
-        <v>0</v>
+        <v>235.6178387625076</v>
       </c>
       <c r="R15" t="n">
-        <v>37.00975247789216</v>
+        <v>37.00975247789214</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -35802,7 +35802,7 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>81.04648326295344</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K16" t="n">
         <v>264.332588409635</v>
@@ -35814,7 +35814,7 @@
         <v>426.2724270010452</v>
       </c>
       <c r="N16" t="n">
-        <v>421.6261329899075</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O16" t="n">
         <v>373.2618997060455</v>
@@ -35957,7 +35957,7 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>1.785239600774929</v>
+        <v>0</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -35972,16 +35972,16 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N18" t="n">
-        <v>633.9373369238454</v>
+        <v>0</v>
       </c>
       <c r="O18" t="n">
-        <v>407.3236446867654</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P18" t="n">
-        <v>0</v>
+        <v>249.9438064495983</v>
       </c>
       <c r="Q18" t="n">
-        <v>0</v>
+        <v>235.6178387625076</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36118,7 +36118,7 @@
         <v>1.539690236317284</v>
       </c>
       <c r="J20" t="n">
-        <v>285.7087110396405</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K20" t="n">
         <v>479.4543240367771</v>
@@ -36194,13 +36194,13 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>1.785239600774929</v>
+        <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K21" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L21" t="n">
         <v>500.3288951674331</v>
@@ -36209,19 +36209,19 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N21" t="n">
-        <v>397.2883392634221</v>
+        <v>0</v>
       </c>
       <c r="O21" t="n">
-        <v>557.48457599928</v>
+        <v>379.5262112417385</v>
       </c>
       <c r="P21" t="n">
-        <v>0</v>
+        <v>427.9021712071396</v>
       </c>
       <c r="Q21" t="n">
         <v>235.6178387625076</v>
       </c>
       <c r="R21" t="n">
-        <v>37.00975247789214</v>
+        <v>0</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -36291,7 +36291,7 @@
         <v>421.6261329899074</v>
       </c>
       <c r="O22" t="n">
-        <v>373.2618997060342</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P22" t="n">
         <v>295.631773306625</v>
@@ -36431,19 +36431,19 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>0</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
       </c>
       <c r="K24" t="n">
-        <v>337.2977496678996</v>
+        <v>150.1270658774932</v>
       </c>
       <c r="L24" t="n">
-        <v>0</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M24" t="n">
-        <v>254.8360547723481</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N24" t="n">
         <v>633.9373369238454</v>
@@ -36452,10 +36452,10 @@
         <v>557.48457599928</v>
       </c>
       <c r="P24" t="n">
-        <v>427.9021712071396</v>
+        <v>0</v>
       </c>
       <c r="Q24" t="n">
-        <v>235.6178387625076</v>
+        <v>0</v>
       </c>
       <c r="R24" t="n">
         <v>37.00975247789214</v>
@@ -36589,7 +36589,7 @@
         <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>1.5396902363158</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J26" t="n">
         <v>285.708711039642</v>
@@ -36668,7 +36668,7 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>1.785239600774929</v>
+        <v>0</v>
       </c>
       <c r="J27" t="n">
         <v>151.1582247754088</v>
@@ -36680,22 +36680,22 @@
         <v>500.3288951674331</v>
       </c>
       <c r="M27" t="n">
-        <v>0</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N27" t="n">
-        <v>633.9373369238454</v>
+        <v>61.77582919629761</v>
       </c>
       <c r="O27" t="n">
-        <v>431.6758624684112</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P27" t="n">
-        <v>427.9021712071396</v>
+        <v>0</v>
       </c>
       <c r="Q27" t="n">
-        <v>0</v>
+        <v>235.6178387625076</v>
       </c>
       <c r="R27" t="n">
-        <v>0</v>
+        <v>37.00975247789214</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -36905,19 +36905,19 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>1.785239600774929</v>
+        <v>0</v>
       </c>
       <c r="J30" t="n">
         <v>0</v>
       </c>
       <c r="K30" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L30" t="n">
         <v>500.3288951674331</v>
       </c>
       <c r="M30" t="n">
-        <v>603.4126137641938</v>
+        <v>0</v>
       </c>
       <c r="N30" t="n">
         <v>633.9373369238454</v>
@@ -36926,10 +36926,10 @@
         <v>557.48457599928</v>
       </c>
       <c r="P30" t="n">
-        <v>0</v>
+        <v>182.4093308120545</v>
       </c>
       <c r="Q30" t="n">
-        <v>150.1270658774933</v>
+        <v>235.6178387625076</v>
       </c>
       <c r="R30" t="n">
         <v>37.00975247789214</v>
@@ -37142,7 +37142,7 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>1.785239600774929</v>
+        <v>0</v>
       </c>
       <c r="J33" t="n">
         <v>0</v>
@@ -37151,25 +37151,25 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L33" t="n">
-        <v>500.3288951674331</v>
+        <v>0</v>
       </c>
       <c r="M33" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N33" t="n">
-        <v>633.9373369238454</v>
+        <v>285.3607779319995</v>
       </c>
       <c r="O33" t="n">
-        <v>0</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P33" t="n">
-        <v>171.7058059242579</v>
+        <v>427.9021712071396</v>
       </c>
       <c r="Q33" t="n">
         <v>235.6178387625076</v>
       </c>
       <c r="R33" t="n">
-        <v>0</v>
+        <v>37.00975247789214</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37312,7 +37312,7 @@
         <v>632.079992146269</v>
       </c>
       <c r="M35" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902934</v>
       </c>
       <c r="N35" t="n">
         <v>751.8584478193518</v>
@@ -37379,7 +37379,7 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>1.785239600774929</v>
+        <v>0</v>
       </c>
       <c r="J36" t="n">
         <v>0</v>
@@ -37391,10 +37391,10 @@
         <v>500.3288951674331</v>
       </c>
       <c r="M36" t="n">
-        <v>386.6592569279853</v>
+        <v>0</v>
       </c>
       <c r="N36" t="n">
-        <v>0</v>
+        <v>388.4444965287602</v>
       </c>
       <c r="O36" t="n">
         <v>557.48457599928</v>
@@ -37552,7 +37552,7 @@
         <v>735.300110790295</v>
       </c>
       <c r="N38" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193505</v>
       </c>
       <c r="O38" t="n">
         <v>696.4886512243162</v>
@@ -37564,7 +37564,7 @@
         <v>371.5675334924729</v>
       </c>
       <c r="R38" t="n">
-        <v>129.8660843902399</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37619,10 +37619,10 @@
         <v>1.785239600774929</v>
       </c>
       <c r="J39" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K39" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L39" t="n">
         <v>500.3288951674331</v>
@@ -37631,16 +37631,16 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N39" t="n">
-        <v>205.0040068187898</v>
+        <v>0</v>
       </c>
       <c r="O39" t="n">
         <v>557.48457599928</v>
       </c>
       <c r="P39" t="n">
-        <v>427.9021712071396</v>
+        <v>211.1488143709312</v>
       </c>
       <c r="Q39" t="n">
-        <v>0</v>
+        <v>235.6178387625076</v>
       </c>
       <c r="R39" t="n">
         <v>37.00975247789214</v>
@@ -37774,7 +37774,7 @@
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>1.539690236317284</v>
+        <v>1.5396902363158</v>
       </c>
       <c r="J41" t="n">
         <v>285.708711039642</v>
@@ -37798,7 +37798,7 @@
         <v>559.5874541683813</v>
       </c>
       <c r="Q41" t="n">
-        <v>371.5675334924719</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R41" t="n">
         <v>129.8660843902405</v>
@@ -37856,31 +37856,31 @@
         <v>1.785239600774929</v>
       </c>
       <c r="J42" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K42" t="n">
         <v>337.2977496678996</v>
       </c>
       <c r="L42" t="n">
-        <v>500.3288951674331</v>
+        <v>0</v>
       </c>
       <c r="M42" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N42" t="n">
-        <v>613.3588104034714</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O42" t="n">
-        <v>0</v>
+        <v>483.8667238383902</v>
       </c>
       <c r="P42" t="n">
-        <v>427.9021712071396</v>
+        <v>0</v>
       </c>
       <c r="Q42" t="n">
-        <v>0</v>
+        <v>235.6178387625076</v>
       </c>
       <c r="R42" t="n">
-        <v>0</v>
+        <v>37.00975247789214</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -38011,13 +38011,13 @@
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>1.5396902363158</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J44" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K44" t="n">
-        <v>479.4543240367771</v>
+        <v>479.4543240367756</v>
       </c>
       <c r="L44" t="n">
         <v>632.079992146269</v>
@@ -38093,16 +38093,16 @@
         <v>1.785239600774929</v>
       </c>
       <c r="J45" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K45" t="n">
         <v>337.2977496678996</v>
       </c>
       <c r="L45" t="n">
-        <v>500.3288951674331</v>
+        <v>0</v>
       </c>
       <c r="M45" t="n">
-        <v>66.47561891376326</v>
+        <v>253.0508151715732</v>
       </c>
       <c r="N45" t="n">
         <v>633.9373369238454</v>
@@ -38111,13 +38111,13 @@
         <v>557.48457599928</v>
       </c>
       <c r="P45" t="n">
-        <v>0</v>
+        <v>427.9021712071396</v>
       </c>
       <c r="Q45" t="n">
         <v>235.6178387625076</v>
       </c>
       <c r="R45" t="n">
-        <v>0</v>
+        <v>37.00975247789214</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
